--- a/config_11.17/game_module_config.xlsx
+++ b/config_11.17/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4319,7 +4319,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C295" sqref="C295"/>
+      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11534,7 +11534,7 @@
         <v>852</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284">
         <v>1</v>

--- a/config_11.17/game_module_config.xlsx
+++ b/config_11.17/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="899">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3778,6 +3778,16 @@
   <si>
     <t>UI-获取金币</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_jhs</t>
+  </si>
+  <si>
+    <t>聚划算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_035_JHSManager</t>
   </si>
 </sst>
 </file>
@@ -4313,13 +4323,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
+      <selection pane="bottomRight" activeCell="I296" sqref="I296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11827,6 +11837,32 @@
       </c>
       <c r="I295" s="24" t="s">
         <v>893</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="19">
+        <v>295</v>
+      </c>
+      <c r="B296" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="D296" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="I296" s="24" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.17/game_module_config.xlsx
+++ b/config_11.17/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="902">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3788,6 +3788,16 @@
   </si>
   <si>
     <t>Act_035_JHSManager</t>
+  </si>
+  <si>
+    <t>by3d_phb</t>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBManager</t>
   </si>
 </sst>
 </file>
@@ -4323,13 +4333,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I296" sqref="I296"/>
+      <selection pane="bottomRight" activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11862,6 +11872,32 @@
         <v>1</v>
       </c>
       <c r="I296" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="19">
+        <v>296</v>
+      </c>
+      <c r="B297" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="D297" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="I297" s="24" t="s">
         <v>645</v>
       </c>
     </row>

--- a/config_11.17/game_module_config.xlsx
+++ b/config_11.17/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4336,10 +4336,10 @@
   <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A297" sqref="A297"/>
+      <selection pane="bottomRight" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8295,13 +8295,13 @@
         <v>450</v>
       </c>
       <c r="E152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
         <v>860</v>
@@ -11194,13 +11194,13 @@
         <v>808</v>
       </c>
       <c r="E270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="21" t="s">
@@ -11221,13 +11221,13 @@
         <v>807</v>
       </c>
       <c r="E271" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G271" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="21" t="s">
